--- a/result/CompareChunkSize/all_chunk_size_speedup.xlsx
+++ b/result/CompareChunkSize/all_chunk_size_speedup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,79 +436,1529 @@
       <c r="D1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9636363636363636</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9735845257816449</v>
+        <v>0.7457479480689571</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9101618607632885</v>
+        <v>0.6155419770846428</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.547379242399074</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4992346356884672</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4615884855347733</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4265397328419543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4014982738708585</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3825645742946366</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3649987236408825</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3512694655053827</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3419618263184405</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3351612672822742</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.3306684218015508</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.321123485658216</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3149631114779306</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.3101297280640616</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.3020448874719756</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.3009085706694897</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3005885908116326</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.295369803211284</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2928511512850581</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2799028479182056</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2812517093562548</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2816026272508222</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2812185263295015</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2753161348159245</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2691178787377731</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2751460110684458</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.2726486205249966</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.2713515031569149</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.2640302966954807</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.2611277151424293</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.2646360329872863</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.2621058206051421</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.2628493261715023</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.2514022127104959</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.2491435373022975</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.2583139067606445</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.2606205904015437</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.2590118140094798</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.2500988061543979</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.2501276981419375</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.2494855621872782</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.2495926241515558</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.2489747717389646</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.2535371975594768</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.2463522599023015</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.2443104354912595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9636363636363636</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9558731144913887</v>
+        <v>0.813332326978209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9332363805589029</v>
+        <v>0.6643102350468993</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.594356348689682</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5229900277799859</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4888271006401356</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4575121880408672</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4303971320239504</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4099114272896314</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3906171935665401</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3627820515483294</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3651341435040934</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3516414416727984</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3448085980255649</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3405959514421149</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3385918128821729</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.3272346561604729</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.3191180449021835</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.3157584846551841</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3067678930969941</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2979002466147335</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3018897739771381</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3007848674862235</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2962747273919196</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2800397247343294</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2643946901681247</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2508913199527646</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.25826537989053</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.255718944815133</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2535669763566662</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2428603532105984</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2348509640815332</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2357946805107166</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2377753387832705</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2347564410184863</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2342226744769679</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2300532838449741</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2356342823478364</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.226702934768549</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2230878630108087</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2191470920342382</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2168934121568692</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2198526801856844</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2160054912656064</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2208064504449389</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2161375469676616</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2141092385797784</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.2101299155586567</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.1782940091318567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7231488637338878</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5607754583421669</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4711780603176015</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4246469540233725</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3890987837027822</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3602537102055569</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3311528286622902</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2960423280117236</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2927356341274441</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2828848560897629</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2602358230395753</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2516817355426739</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2493405257261116</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2483171183913328</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2433011246061393</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2261056652252135</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2287495957901133</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2227999189000862</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2216557148540872</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2178846560217367</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2049204605604085</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.207890140234754</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2064027994198303</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.1985714642722734</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1980696924978997</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1968229969395243</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1840871834896431</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1922099879782943</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1895711258525855</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.1765827511001165</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.1783174642859732</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.1818291666969555</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.1819465425832769</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.1811208793992598</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.1804518714196882</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.1790269870332708</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.1652668172357907</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.1731147611799984</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.1727432835874202</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.1709860005812615</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.1606934442260773</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.1658834489814817</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.168799302215203</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.1645397487111721</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.1644345908943859</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.1645257300199583</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.1648741516359879</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.1597006450706668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q6</t>
+          <t>Q3</t>
         </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6807271434503905</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4862880747432033</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3939345232546747</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3563671506515266</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3318554155298992</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3243202145100768</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3077553730375762</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2916114681473047</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.281718234815506</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.273125814248815</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2624235667260729</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.261451086542171</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.2593188675989348</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2564200660656707</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2491663954572021</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2418716569816378</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2386386434570106</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2342933860130113</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.21739758490345</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2087729252632348</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2088098240647424</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2081853242733235</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.211366836924774</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2082303976965892</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.2085310563075173</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.2108532901656939</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.2106425102539863</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.195182160212834</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.2026194739234802</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.203270315284351</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2028852669123819</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.2013363661759901</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.2007688645698082</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1936540227960169</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.1935924711667961</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.1824811710302775</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1814682693350548</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.1875127026489357</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.1868245888073486</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.1853022864913033</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.1801408880951693</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.181073972543597</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.1713235356251784</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.1713448300022877</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.1786073344820808</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.1768863419993852</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.1694509783666203</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.1680252236596072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q6</t>
         </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7675479084121822</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6367892639901135</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5732147701266064</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.505044044704525</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4678319070552482</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4501883348249976</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4221965513981196</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4097409476251693</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4040311710741197</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3782802158093919</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3611767326055368</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3500676777622573</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.345329504880849</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.3328371315519226</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3243973873825837</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3109489266649742</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.3030186837844542</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2902304523741359</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2826019136698811</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2861842093470075</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2805194721011859</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2783230624508085</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2593053857243166</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2561956971626995</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2591444734425292</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.2564859771901646</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.2519272466245848</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.2452242774565832</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.2384773268978739</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.2366474246317886</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.2295370086033427</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.2293180717326484</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.22889517719958</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.2205784961546986</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.2239249393630846</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.2241538860926391</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.2236921652917503</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.2187345613322254</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.2166465064925215</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.2057908910123885</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.210934545077609</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.2070801871638669</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.2026153550225985</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.2024546790269045</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1931564288723262</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1941904750668466</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.1935246502918006</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.1745533108498844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q7</t>
         </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6797187499727352</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5279431303590295</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4640499922692309</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4455982716969921</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4119151323355149</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3764616359924819</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3562171716896895</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3302748532242504</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.317196677751037</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3076574104144259</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2976132658356104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2902631346562143</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.2779951148398755</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2743156724539446</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2676424405859612</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2598015560769982</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.2541932492653114</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2519107817552913</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.2436137267344179</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2315491803751642</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.2374999986870019</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2331409790372568</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.2282622046681095</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.2267832336729245</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.2237516545174171</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.2216220510089246</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.2154654676832734</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.213800720162676</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.210152536441567</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.2078268488558409</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.2076283725682752</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.2047246661277496</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.2027135786927649</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.1954852300531673</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.1940982298191672</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.1944973530518395</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.1896064693224292</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.1890646747400771</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.1876766432499313</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.1851561389701224</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.1842485664544169</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.1775962225922444</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.1800113938525038</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.1755519846618707</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.1744307526445178</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.1735755412952076</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.1697076286060603</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.1638555432168884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q8</t>
         </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7825960408482862</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6490286277125598</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5364560727973927</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4999101540983865</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4609559770314679</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4225129671814293</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3921288043903093</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3728798554499393</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3663370590283157</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3515649967348609</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3364301994775432</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.321310809038814</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.3094928366071197</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2942073882839694</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2915911228744303</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2795221594335929</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.2770926778414719</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2718973398310127</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.2723495448626336</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2629656205284212</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.2606689878810153</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2586369461989304</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.2539571094771406</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.2427854056117573</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.2450829984939907</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.2367528258240026</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.2337148005147905</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.2279180739506492</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.2242466734957112</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.2242145776277858</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.2062082379114447</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.2144797279238005</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.2137992127164047</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.2137717829345885</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.2065047603306462</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.2026447097687475</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.196389916546693</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.1988730494491416</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.1945573069531961</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.1947021892933886</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.1912744681662484</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.186146607954848</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.1924132238629565</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.1925093814794348</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.1901524656333804</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.1828195888945385</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.159147594864148</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.1461405285552015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7166794155812335</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5888753131897629</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5122189168844529</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4626667967887857</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4231398020363607</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3923245437247064</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3715973130236453</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3512384627701821</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3387566916804293</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3289238712437653</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3087775458653321</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.300681878005332</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2970863747785235</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2889137883430891</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2763973987162338</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2768398102776318</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2639015012747877</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2632293847391979</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2549058713042068</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2529824777042776</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.2515722477796309</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2482556837983111</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.2419631919853432</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2432394293408255</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.2423789798851205</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.2379276629640913</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2276251129560297</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2237550861506448</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.2155931365259647</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.2114293168626931</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.209209080354626</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.2091687127346767</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.2135109786808438</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.2120236923239543</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.2093373485037189</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.1970204432333999</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1928967860207333</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1993125446977913</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.1969912737449636</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1979772292395519</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.1951873396766217</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.193635041390449</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1836886145263925</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1827344759684122</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.1817145152894533</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.1788843852002438</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.1775261307313981</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.1736471025450735</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7448815717604965</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6089575620023446</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5464915041308273</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4963236632960136</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4595938626693115</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4349147513263023</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4138990140322139</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3943612978843427</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3802814432679905</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3600013695756359</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3467176391229841</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3180674730299927</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3179428211624901</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3071945012030171</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3017980109426861</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2900527704267102</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.2869968533579433</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2772250855273121</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.2707016525198936</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2658537535305312</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.2627600381424181</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2559882926440438</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.2515932440221562</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.2432206687155942</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.2405451641243258</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.2406103188665529</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.2403985373767509</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.2352262274116565</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.2316380074502464</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.2271900188648951</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.2233327851380741</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.2205356616194556</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.2180419790438975</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.2206819048121603</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.2223960254002553</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.2192500980805338</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.209487206212412</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.2049321779155119</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.2017778883631199</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.2068495631568438</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.205505464179776</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.2021946016333818</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1954801472388754</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.196800528161228</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.1931332934115725</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.1825326278435177</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.1778689769314204</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.1680809712908469</v>
       </c>
     </row>
   </sheetData>
